--- a/Excel/ServerInfoConfig@s.xlsx
+++ b/Excel/ServerInfoConfig@s.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="16">
   <si>
     <t>Id</t>
   </si>
@@ -62,9 +62,6 @@
   </si>
   <si>
     <t>小菜1服</t>
-  </si>
-  <si>
-    <t>小菜2服</t>
   </si>
 </sst>
 </file>
@@ -77,7 +74,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -93,19 +90,6 @@
     </font>
     <font>
       <b/>
-      <sz val="9"/>
-      <color theme="1"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color theme="1"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="9"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
@@ -580,156 +564,147 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1079,87 +1054,87 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C3:I31"/>
+  <dimension ref="C3:I6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="5"/>
   <cols>
-    <col min="1" max="1" width="21.125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="12.75" style="3" customWidth="1"/>
-    <col min="3" max="3" width="6.71666666666667" style="4" customWidth="1"/>
-    <col min="4" max="4" width="11.55" style="4" customWidth="1"/>
-    <col min="5" max="16384" width="9" style="3"/>
+    <col min="1" max="1" width="21.125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="12.75" style="2" customWidth="1"/>
+    <col min="3" max="3" width="6.71666666666667" style="3" customWidth="1"/>
+    <col min="4" max="4" width="11.55" style="3" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="3" spans="3:9">
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="G3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="6" t="s">
+      <c r="H3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="I3" s="6" t="s">
+      <c r="I3" s="4" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="4" spans="3:9">
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="F4" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="G4" s="6" t="s">
+      <c r="G4" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="H4" s="6" t="s">
+      <c r="H4" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="I4" s="6" t="s">
+      <c r="I4" s="4" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="5" spans="3:9">
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="F5" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="G5" s="5" t="s">
+      <c r="G5" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="H5" s="5" t="s">
+      <c r="H5" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="I5" s="5" t="s">
+      <c r="I5" s="4" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1167,7 +1142,7 @@
       <c r="C6" s="1">
         <v>1</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G6" s="1">
@@ -1180,24 +1155,6 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" s="2" customFormat="1" spans="3:9">
-      <c r="C7" s="1">
-        <v>2</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="G7" s="2">
-        <v>1</v>
-      </c>
-      <c r="H7" s="2">
-        <v>1</v>
-      </c>
-      <c r="I7" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" ht="13.5"/>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
